--- a/Results/Nnenum_Results.xlsx
+++ b/Results/Nnenum_Results.xlsx
@@ -1,220 +1,221 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Faculty\VF\Proiect-VF\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AD218C-C37C-4B2D-9E71-2D69C595D7FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{125395E5-53E5-4A94-A398-8068811E2794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BD6A9B33-D49F-4C79-8660-03A485EFCFAB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="my_data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="63">
+  <si>
+    <t>holds</t>
+  </si>
+  <si>
+    <t>violated</t>
+  </si>
   <si>
     <t>ONNX</t>
   </si>
   <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Time (seconds)</t>
+  </si>
+  <si>
+    <t>onnx/ACASXU_run2a_1_1_batch_2000.onnx</t>
+  </si>
+  <si>
+    <t>onnx/ACASXU_run2a_1_2_batch_2000.onnx</t>
+  </si>
+  <si>
+    <t>onnx/ACASXU_run2a_1_3_batch_2000.onnx</t>
+  </si>
+  <si>
+    <t>onnx/ACASXU_run2a_1_4_batch_2000.onnx</t>
+  </si>
+  <si>
+    <t>onnx/ACASXU_run2a_1_5_batch_2000.onnx</t>
+  </si>
+  <si>
+    <t>onnx/ACASXU_run2a_1_6_batch_2000.onnx</t>
+  </si>
+  <si>
+    <t>onnx/ACASXU_run2a_1_7_batch_2000.onnx</t>
+  </si>
+  <si>
+    <t>onnx/ACASXU_run2a_1_8_batch_2000.onnx</t>
+  </si>
+  <si>
+    <t>onnx/ACASXU_run2a_1_9_batch_2000.onnx</t>
+  </si>
+  <si>
+    <t>onnx/ACASXU_run2a_2_1_batch_2000.onnx</t>
+  </si>
+  <si>
+    <t>onnx/ACASXU_run2a_2_2_batch_2000.onnx</t>
+  </si>
+  <si>
+    <t>onnx/ACASXU_run2a_2_3_batch_2000.onnx</t>
+  </si>
+  <si>
+    <t>onnx/ACASXU_run2a_2_4_batch_2000.onnx</t>
+  </si>
+  <si>
+    <t>onnx/ACASXU_run2a_2_5_batch_2000.onnx</t>
+  </si>
+  <si>
+    <t>onnx/ACASXU_run2a_2_6_batch_2000.onnx</t>
+  </si>
+  <si>
+    <t>onnx/ACASXU_run2a_2_7_batch_2000.onnx</t>
+  </si>
+  <si>
+    <t>onnx/ACASXU_run2a_2_8_batch_2000.onnx</t>
+  </si>
+  <si>
+    <t>onnx/ACASXU_run2a_2_9_batch_2000.onnx</t>
+  </si>
+  <si>
+    <t>onnx/ACASXU_run2a_3_1_batch_2000.onnx</t>
+  </si>
+  <si>
+    <t>onnx/ACASXU_run2a_3_2_batch_2000.onnx</t>
+  </si>
+  <si>
+    <t>onnx/ACASXU_run2a_3_3_batch_2000.onnx</t>
+  </si>
+  <si>
+    <t>onnx/ACASXU_run2a_3_4_batch_2000.onnx</t>
+  </si>
+  <si>
+    <t>onnx/ACASXU_run2a_3_5_batch_2000.onnx</t>
+  </si>
+  <si>
+    <t>onnx/ACASXU_run2a_3_6_batch_2000.onnx</t>
+  </si>
+  <si>
+    <t>onnx/ACASXU_run2a_3_7_batch_2000.onnx</t>
+  </si>
+  <si>
+    <t>onnx/ACASXU_run2a_3_8_batch_2000.onnx</t>
+  </si>
+  <si>
+    <t>onnx/ACASXU_run2a_3_9_batch_2000.onnx</t>
+  </si>
+  <si>
+    <t>onnx/ACASXU_run2a_4_1_batch_2000.onnx</t>
+  </si>
+  <si>
+    <t>onnx/ACASXU_run2a_4_2_batch_2000.onnx</t>
+  </si>
+  <si>
+    <t>onnx/ACASXU_run2a_4_3_batch_2000.onnx</t>
+  </si>
+  <si>
+    <t>onnx/ACASXU_run2a_4_4_batch_2000.onnx</t>
+  </si>
+  <si>
+    <t>onnx/ACASXU_run2a_4_5_batch_2000.onnx</t>
+  </si>
+  <si>
+    <t>onnx/ACASXU_run2a_4_6_batch_2000.onnx</t>
+  </si>
+  <si>
+    <t>onnx/ACASXU_run2a_4_7_batch_2000.onnx</t>
+  </si>
+  <si>
+    <t>onnx/ACASXU_run2a_4_8_batch_2000.onnx</t>
+  </si>
+  <si>
+    <t>onnx/ACASXU_run2a_4_9_batch_2000.onnx</t>
+  </si>
+  <si>
+    <t>onnx/ACASXU_run2a_5_1_batch_2000.onnx</t>
+  </si>
+  <si>
+    <t>onnx/ACASXU_run2a_5_2_batch_2000.onnx</t>
+  </si>
+  <si>
+    <t>onnx/ACASXU_run2a_5_3_batch_2000.onnx</t>
+  </si>
+  <si>
+    <t>onnx/ACASXU_run2a_5_4_batch_2000.onnx</t>
+  </si>
+  <si>
+    <t>onnx/ACASXU_run2a_5_5_batch_2000.onnx</t>
+  </si>
+  <si>
+    <t>onnx/ACASXU_run2a_5_6_batch_2000.onnx</t>
+  </si>
+  <si>
+    <t>onnx/ACASXU_run2a_5_7_batch_2000.onnx</t>
+  </si>
+  <si>
+    <t>onnx/ACASXU_run2a_5_8_batch_2000.onnx</t>
+  </si>
+  <si>
+    <t>onnx/ACASXU_run2a_5_9_batch_2000.onnx</t>
+  </si>
+  <si>
+    <t>vnnlib/prop_1.vnnlib</t>
+  </si>
+  <si>
+    <t>vnnlib/prop_2.vnnlib</t>
+  </si>
+  <si>
+    <t>vnnlib/prop_3.vnnlib</t>
+  </si>
+  <si>
+    <t>vnnlib/prop_4.vnnlib</t>
+  </si>
+  <si>
+    <t>vnnlib/prop_5.vnnlib</t>
+  </si>
+  <si>
+    <t>vnnlib/prop_6.vnnlib</t>
+  </si>
+  <si>
+    <t>vnnlib/prop_7.vnnlib</t>
+  </si>
+  <si>
+    <t>vnnlib/prop_8.vnnlib</t>
+  </si>
+  <si>
+    <t>vnnlib/prop_9.vnnlib</t>
+  </si>
+  <si>
+    <t>vnnlib/prop_10.vnnlib</t>
+  </si>
+  <si>
     <t>VNN-LIB</t>
   </si>
   <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>onnx/ACASXU_run2a_1_1_batch_2000.onnx</t>
-  </si>
-  <si>
-    <t>onnx/ACASXU_run2a_1_2_batch_2000.onnx</t>
-  </si>
-  <si>
-    <t>vnnlib/prop_1.vnnlib</t>
-  </si>
-  <si>
-    <t>onnx/ACASXU_run2a_1_3_batch_2000.onnx</t>
-  </si>
-  <si>
-    <t>onnx/ACASXU_run2a_1_4_batch_2000.onnx</t>
-  </si>
-  <si>
-    <t>onnx/ACASXU_run2a_1_5_batch_2000.onnx</t>
-  </si>
-  <si>
-    <t>onnx/ACASXU_run2a_1_6_batch_2000.onnx</t>
-  </si>
-  <si>
-    <t>onnx/ACASXU_run2a_1_7_batch_2000.onnx</t>
-  </si>
-  <si>
-    <t>onnx/ACASXU_run2a_1_8_batch_2000.onnx</t>
-  </si>
-  <si>
-    <t>onnx/ACASXU_run2a_1_9_batch_2000.onnx</t>
-  </si>
-  <si>
-    <t>onnx/ACASXU_run2a_2_1_batch_2000.onnx</t>
-  </si>
-  <si>
-    <t>onnx/ACASXU_run2a_2_2_batch_2000.onnx</t>
-  </si>
-  <si>
-    <t>onnx/ACASXU_run2a_2_3_batch_2000.onnx</t>
-  </si>
-  <si>
-    <t>onnx/ACASXU_run2a_2_4_batch_2000.onnx</t>
-  </si>
-  <si>
-    <t>onnx/ACASXU_run2a_2_5_batch_2000.onnx</t>
-  </si>
-  <si>
-    <t>onnx/ACASXU_run2a_2_6_batch_2000.onnx</t>
-  </si>
-  <si>
-    <t>onnx/ACASXU_run2a_2_7_batch_2000.onnx</t>
-  </si>
-  <si>
-    <t>onnx/ACASXU_run2a_2_8_batch_2000.onnx</t>
-  </si>
-  <si>
-    <t>onnx/ACASXU_run2a_2_9_batch_2000.onnx</t>
-  </si>
-  <si>
-    <t>onnx/ACASXU_run2a_3_1_batch_2000.onnx</t>
-  </si>
-  <si>
-    <t>onnx/ACASXU_run2a_3_2_batch_2000.onnx</t>
-  </si>
-  <si>
-    <t>onnx/ACASXU_run2a_3_3_batch_2000.onnx</t>
-  </si>
-  <si>
-    <t>onnx/ACASXU_run2a_3_4_batch_2000.onnx</t>
-  </si>
-  <si>
-    <t>onnx/ACASXU_run2a_3_5_batch_2000.onnx</t>
-  </si>
-  <si>
-    <t>onnx/ACASXU_run2a_3_6_batch_2000.onnx</t>
-  </si>
-  <si>
-    <t>onnx/ACASXU_run2a_3_7_batch_2000.onnx</t>
-  </si>
-  <si>
-    <t>onnx/ACASXU_run2a_3_8_batch_2000.onnx</t>
-  </si>
-  <si>
-    <t>onnx/ACASXU_run2a_3_9_batch_2000.onnx</t>
-  </si>
-  <si>
-    <t>onnx/ACASXU_run2a_4_1_batch_2000.onnx</t>
-  </si>
-  <si>
-    <t>onnx/ACASXU_run2a_4_2_batch_2000.onnx</t>
-  </si>
-  <si>
-    <t>onnx/ACASXU_run2a_4_3_batch_2000.onnx</t>
-  </si>
-  <si>
-    <t>onnx/ACASXU_run2a_4_4_batch_2000.onnx</t>
-  </si>
-  <si>
-    <t>onnx/ACASXU_run2a_4_5_batch_2000.onnx</t>
-  </si>
-  <si>
-    <t>onnx/ACASXU_run2a_4_6_batch_2000.onnx</t>
-  </si>
-  <si>
-    <t>onnx/ACASXU_run2a_4_7_batch_2000.onnx</t>
-  </si>
-  <si>
-    <t>onnx/ACASXU_run2a_4_8_batch_2000.onnx</t>
-  </si>
-  <si>
-    <t>onnx/ACASXU_run2a_4_9_batch_2000.onnx</t>
-  </si>
-  <si>
-    <t>onnx/ACASXU_run2a_5_1_batch_2000.onnx</t>
-  </si>
-  <si>
-    <t>onnx/ACASXU_run2a_5_2_batch_2000.onnx</t>
-  </si>
-  <si>
-    <t>onnx/ACASXU_run2a_5_3_batch_2000.onnx</t>
-  </si>
-  <si>
-    <t>onnx/ACASXU_run2a_5_4_batch_2000.onnx</t>
-  </si>
-  <si>
-    <t>onnx/ACASXU_run2a_5_5_batch_2000.onnx</t>
-  </si>
-  <si>
-    <t>onnx/ACASXU_run2a_5_6_batch_2000.onnx</t>
-  </si>
-  <si>
-    <t>onnx/ACASXU_run2a_5_7_batch_2000.onnx</t>
-  </si>
-  <si>
-    <t>onnx/ACASXU_run2a_5_8_batch_2000.onnx</t>
-  </si>
-  <si>
-    <t>onnx/ACASXU_run2a_5_9_batch_2000.onnx</t>
-  </si>
-  <si>
-    <t>vnnlib/prop_2.vnnlib</t>
-  </si>
-  <si>
-    <t>vnnlib/prop_3.vnnlib</t>
-  </si>
-  <si>
-    <t>vnnlib/prop_4.vnnlib</t>
-  </si>
-  <si>
-    <t>vnnlib/prop_5.vnnlib</t>
-  </si>
-  <si>
-    <t>vnnlib/prop_6.vnnlib</t>
-  </si>
-  <si>
-    <t>vnnlib/prop_7.vnnlib</t>
-  </si>
-  <si>
-    <t>vnnlib/prop_8.vnnlib</t>
-  </si>
-  <si>
-    <t>vnnlib/prop_9.vnnlib</t>
-  </si>
-  <si>
-    <t>vnnlib/prop_10.vnnlib</t>
-  </si>
-  <si>
-    <t>Time (seconds)</t>
-  </si>
-  <si>
-    <t>holds</t>
-  </si>
-  <si>
-    <t>violated</t>
+    <t>MEAN</t>
+  </si>
+  <si>
+    <t>MAX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,15 +224,134 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,12 +360,185 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -253,24 +546,205 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -286,7 +760,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Temă Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -581,2637 +1055,2651 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4204B2C7-034F-4164-AD70-3D4FA57724C1}">
-  <dimension ref="A1:D187"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="82" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.109375" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="1" max="1" width="37.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1.3708</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1.13754235400028</v>
+      </c>
+      <c r="F2">
+        <f>AVERAGE(D2:D187)</f>
+        <v>2.3079616888763175</v>
+      </c>
+      <c r="G2">
+        <f>MAX(D2:D187)</f>
+        <v>61.582157558999803</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1.3512</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1.23916768500021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1.6303000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1.3828327239998499</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1.5988</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1.4334257459995501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1.2929999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1.2425151380002699</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1.8465</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1.6223556269996999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1.2398</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1.18367178199969</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1.4137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1.3715404770000501</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1.2155</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1.2251702479998099</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1.7535000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1.6151680279999701</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="2">
-        <v>3.0070000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>2.6666065870003801</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1.9882</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1.8532039880001301</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1.4456</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1.4382886539997299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="2">
-        <v>3.2783000000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>2.8727297229997899</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="2">
-        <v>2.4723999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>2.2449556659994401</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="2">
-        <v>4.3685999999999998</v>
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>3.8770962090002201</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="2">
-        <v>4.16</v>
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>3.71666889000061</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="2">
-        <v>65.122</v>
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>4.2796261650000798</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1.9664999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1.87582995299999</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="2">
-        <v>1.5589999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1.4994561169996801</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1.8189</v>
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1.7888947450001</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="2">
-        <v>1.6001000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1.46008992099996</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="2">
-        <v>2.6436999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>2.2420965109995401</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="2">
-        <v>5.2011000000000003</v>
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>4.5162506360002199</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="2">
-        <v>4.6753</v>
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>4.0327642720003496</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="2">
-        <v>4.1425999999999998</v>
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>3.41742771400004</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="2">
-        <v>3.9518</v>
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>3.02568398699986</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" s="3">
-        <v>3.1707999999999998</v>
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>2.7697254920003598</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="2">
-        <v>2.2799</v>
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>2.0886871969996701</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
-      </c>
-      <c r="D31" s="2">
-        <v>1.8637999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>1.69003888000042</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
-      </c>
-      <c r="D32" s="2">
-        <v>1.5581</v>
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>1.4232997560002301</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C33" t="s">
-        <v>59</v>
-      </c>
-      <c r="D33" s="2">
-        <v>2.7509999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>2.5601912769998298</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C34" t="s">
-        <v>59</v>
-      </c>
-      <c r="D34" s="2">
-        <v>6.9104000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>5.9943418820002901</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C35" t="s">
-        <v>59</v>
-      </c>
-      <c r="D35" s="2">
-        <v>4.8483000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>4.3488557789996696</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C36" t="s">
-        <v>59</v>
-      </c>
-      <c r="D36" s="2">
-        <v>3.7343999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>3.3351536129994201</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>59</v>
-      </c>
-      <c r="D37" s="2">
-        <v>9.2522000000000002</v>
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>7.9511153119992697</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>59</v>
-      </c>
-      <c r="D38" s="2">
-        <v>1.452</v>
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>1.44576752899956</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>59</v>
-      </c>
-      <c r="D39" s="2">
-        <v>1.8392999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>1.6731240330000201</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>59</v>
-      </c>
-      <c r="D40" s="2">
-        <v>1.3604000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>1.3243781430001</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C41" t="s">
-        <v>59</v>
-      </c>
-      <c r="D41" s="2">
-        <v>1.5139</v>
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>1.50066935799986</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C42" t="s">
-        <v>59</v>
-      </c>
-      <c r="D42" s="2">
-        <v>2.109</v>
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>1.9730589470000199</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>59</v>
-      </c>
-      <c r="D43" s="2">
-        <v>3.4809999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>3.02927981399989</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>59</v>
-      </c>
-      <c r="D44" s="2">
-        <v>3.1438000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>2.7394731089998401</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C45" t="s">
-        <v>59</v>
-      </c>
-      <c r="D45" s="2">
-        <v>61.799500000000002</v>
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>61.305501276999998</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>59</v>
-      </c>
-      <c r="D46" s="2">
-        <v>4.7031999999999998</v>
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>4.13406016599947</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>59</v>
-      </c>
-      <c r="D47" s="2">
-        <v>1.5236000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>1.4698758160002301</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>60</v>
-      </c>
-      <c r="D48" s="2">
-        <v>1.0686</v>
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1.1336305730001099</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>60</v>
-      </c>
-      <c r="D49" s="2">
-        <v>2.1779000000000002</v>
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>2.4296863979998302</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>60</v>
-      </c>
-      <c r="D50" s="2">
-        <v>1.1618999999999999</v>
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>1.2177732099998999</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>60</v>
-      </c>
-      <c r="D51" s="2">
-        <v>1.0386</v>
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1.06873731900032</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>60</v>
-      </c>
-      <c r="D52" s="2">
-        <v>1.9653</v>
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>2.24917451300007</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>59</v>
-      </c>
-      <c r="D53" s="2">
-        <v>2.8407</v>
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>2.3537407739995602</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C54" t="s">
-        <v>59</v>
-      </c>
-      <c r="D54" s="2">
-        <v>4.3658000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>3.46470024800055</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>59</v>
-      </c>
-      <c r="D55" s="2">
-        <v>2.7065000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>2.7009855719998002</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C56" t="s">
-        <v>60</v>
-      </c>
-      <c r="D56" s="2">
-        <v>0.94420000000000004</v>
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>0.95158654799979503</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C57" t="s">
-        <v>60</v>
-      </c>
-      <c r="D57" s="2">
-        <v>0.88800000000000001</v>
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>0.92845895499976905</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B58" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C58" t="s">
-        <v>60</v>
-      </c>
-      <c r="D58" s="2">
-        <v>0.87609999999999999</v>
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>0.93303434300014398</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B59" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C59" t="s">
-        <v>60</v>
-      </c>
-      <c r="D59" s="2">
-        <v>0.87680000000000002</v>
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>0.91918809500020804</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B60" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C60" t="s">
-        <v>60</v>
-      </c>
-      <c r="D60" s="2">
-        <v>0.88039999999999996</v>
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>0.90643352899951402</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B61" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C61" t="s">
-        <v>60</v>
-      </c>
-      <c r="D61" s="2">
-        <v>0.88190000000000002</v>
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>0.896398779999799</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B62" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C62" t="s">
-        <v>60</v>
-      </c>
-      <c r="D62" s="2">
-        <v>0.89390000000000003</v>
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>0.90418273500017599</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B63" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C63" t="s">
-        <v>60</v>
-      </c>
-      <c r="D63" s="2">
-        <v>0.88360000000000005</v>
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>0.89103813600013304</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B64" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C64" t="s">
-        <v>60</v>
-      </c>
-      <c r="D64" s="2">
-        <v>1.2504999999999999</v>
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>1.65843736199985</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B65" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C65" t="s">
-        <v>60</v>
-      </c>
-      <c r="D65" s="2">
-        <v>0.89059999999999995</v>
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>0.90423325899973805</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B66" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C66" t="s">
-        <v>60</v>
-      </c>
-      <c r="D66" s="2">
-        <v>1.0007999999999999</v>
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>1.05458837300011</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B67" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C67" t="s">
-        <v>59</v>
-      </c>
-      <c r="D67" s="2">
-        <v>16.549199999999999</v>
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>15.0129103900007</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B68" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C68" t="s">
-        <v>60</v>
-      </c>
-      <c r="D68" s="2">
-        <v>0.86880000000000002</v>
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>0.901579784000205</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B69" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C69" t="s">
-        <v>60</v>
-      </c>
-      <c r="D69" s="2">
-        <v>0.90920000000000001</v>
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>0.89664888100014595</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B70" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C70" t="s">
-        <v>60</v>
-      </c>
-      <c r="D70" s="2">
-        <v>0.96199999999999997</v>
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>0.93698992800000203</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B71" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C71" t="s">
-        <v>60</v>
-      </c>
-      <c r="D71" s="2">
-        <v>1.1379999999999999</v>
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>61.582157558999803</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B72" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C72" t="s">
-        <v>60</v>
-      </c>
-      <c r="D72" s="2">
-        <v>0.91830000000000001</v>
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>0.93764031199953002</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B73" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C73" t="s">
-        <v>60</v>
-      </c>
-      <c r="D73" s="2">
-        <v>0.89470000000000005</v>
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>0.89099789800002305</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B74" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C74" t="s">
-        <v>60</v>
-      </c>
-      <c r="D74" s="2">
-        <v>0.88770000000000004</v>
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>0.924081139999543</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B75" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C75" t="s">
-        <v>59</v>
-      </c>
-      <c r="D75" s="2">
-        <v>17.854800000000001</v>
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>18.8706559460006</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B76" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C76" t="s">
-        <v>60</v>
-      </c>
-      <c r="D76" s="2">
-        <v>0.90390000000000004</v>
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>0.93304596000052697</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B77" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C77" t="s">
-        <v>60</v>
-      </c>
-      <c r="D77" s="2">
-        <v>1.0339</v>
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>1.0156044959994599</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B78" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C78" t="s">
-        <v>60</v>
-      </c>
-      <c r="D78" s="2">
-        <v>0.90539999999999998</v>
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>0.91653389599923596</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B79" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C79" t="s">
-        <v>60</v>
-      </c>
-      <c r="D79" s="2">
-        <v>0.87870000000000004</v>
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>0.89494562199979499</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B80" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C80" t="s">
-        <v>60</v>
-      </c>
-      <c r="D80" s="2">
-        <v>0.87729999999999997</v>
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>0.91114462800032903</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B81" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C81" t="s">
-        <v>60</v>
-      </c>
-      <c r="D81" s="2">
-        <v>0.8679</v>
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>0.912309431999347</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B82" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C82" t="s">
-        <v>60</v>
-      </c>
-      <c r="D82" s="2">
-        <v>0.93669999999999998</v>
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>0.95947162399988795</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B83" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C83" t="s">
-        <v>60</v>
-      </c>
-      <c r="D83" s="2">
-        <v>0.88460000000000005</v>
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>0.926535382999645</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B84" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C84" t="s">
-        <v>60</v>
-      </c>
-      <c r="D84" s="2">
-        <v>0.87590000000000001</v>
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>0.90362689299945398</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B85" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C85" t="s">
-        <v>60</v>
-      </c>
-      <c r="D85" s="2">
-        <v>2.4498000000000002</v>
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>2.6615413990002699</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B86" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C86" t="s">
-        <v>60</v>
-      </c>
-      <c r="D86" s="2">
-        <v>0.86019999999999996</v>
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>0.89787197100031302</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B87" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C87" t="s">
-        <v>60</v>
-      </c>
-      <c r="D87" s="2">
-        <v>0.89129999999999998</v>
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>0.91350804000012398</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B88" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C88" t="s">
-        <v>60</v>
-      </c>
-      <c r="D88" s="2">
-        <v>0.90149999999999997</v>
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>0.90498419400046204</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B89" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C89" t="s">
-        <v>60</v>
-      </c>
-      <c r="D89" s="2">
-        <v>0.86480000000000001</v>
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>0.91016963000038198</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B90" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C90" t="s">
-        <v>60</v>
-      </c>
-      <c r="D90" s="2">
-        <v>0.89349999999999996</v>
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>0.89693755499956695</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B91" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C91" t="s">
-        <v>60</v>
-      </c>
-      <c r="D91" s="2">
-        <v>0.87460000000000004</v>
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>0.89618462700036605</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B92" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C92" t="s">
-        <v>59</v>
-      </c>
-      <c r="D92" s="2">
-        <v>1.831</v>
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>1.85350104099961</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B93" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C93" t="s">
-        <v>59</v>
-      </c>
-      <c r="D93" s="2">
-        <v>1.8167</v>
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>1.9565403030001101</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B94" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C94" t="s">
-        <v>59</v>
-      </c>
-      <c r="D94" s="2">
-        <v>1.1448</v>
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>1.1605360519997701</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B95" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C95" t="s">
-        <v>59</v>
-      </c>
-      <c r="D95" s="2">
-        <v>0.97170000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>1.0474763720003399</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B96" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C96" t="s">
-        <v>59</v>
-      </c>
-      <c r="D96" s="2">
-        <v>1.0239</v>
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>1.0298269539998699</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B97" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C97" t="s">
-        <v>59</v>
-      </c>
-      <c r="D97" s="2">
-        <v>0.88919999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0.95674407600017697</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C98" t="s">
-        <v>60</v>
-      </c>
-      <c r="D98" s="2">
-        <v>0.872</v>
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>0.90225528399969301</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B99" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C99" t="s">
-        <v>60</v>
-      </c>
-      <c r="D99" s="2">
-        <v>0.87280000000000002</v>
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>0.89395883599991</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B100" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C100" t="s">
-        <v>60</v>
-      </c>
-      <c r="D100" s="2">
-        <v>0.87949999999999995</v>
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>0.93458665399975804</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B101" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C101" t="s">
-        <v>59</v>
-      </c>
-      <c r="D101" s="2">
-        <v>1.1777</v>
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>1.10864579699955</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B102" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C102" t="s">
-        <v>59</v>
-      </c>
-      <c r="D102" s="2">
-        <v>1.1386000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>1.0817449369997101</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B103" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C103" t="s">
-        <v>59</v>
-      </c>
-      <c r="D103" s="2">
-        <v>1.1234999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>1.1547023109997001</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B104" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C104" t="s">
-        <v>59</v>
-      </c>
-      <c r="D104" s="2">
-        <v>0.80230000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0.80312435999985599</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B105" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C105" t="s">
-        <v>59</v>
-      </c>
-      <c r="D105" s="2">
-        <v>0.92800000000000005</v>
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>0.93122195599971702</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B106" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C106" t="s">
-        <v>59</v>
-      </c>
-      <c r="D106" s="2">
-        <v>0.87529999999999997</v>
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0.88158657899930404</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B107" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C107" t="s">
-        <v>59</v>
-      </c>
-      <c r="D107" s="2">
-        <v>0.88939999999999997</v>
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>0.92992629400032401</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B108" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C108" t="s">
-        <v>59</v>
-      </c>
-      <c r="D108" s="2">
-        <v>0.88260000000000005</v>
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>0.90052529300009998</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B109" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C109" t="s">
-        <v>59</v>
-      </c>
-      <c r="D109" s="2">
-        <v>0.77910000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>0.77749007400052506</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B110" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C110" t="s">
-        <v>59</v>
-      </c>
-      <c r="D110" s="2">
-        <v>0.94399999999999995</v>
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>0.93810528700032503</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B111" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C111" t="s">
-        <v>59</v>
-      </c>
-      <c r="D111" s="2">
-        <v>1.1846000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>1.1997763420004</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B112" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C112" t="s">
-        <v>59</v>
-      </c>
-      <c r="D112" s="2">
-        <v>1.1366000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>1.08688890699977</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B113" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C113" t="s">
-        <v>59</v>
-      </c>
-      <c r="D113" s="2">
-        <v>0.9546</v>
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>0.99768597699949102</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B114" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C114" t="s">
-        <v>59</v>
-      </c>
-      <c r="D114" s="2">
-        <v>0.92759999999999998</v>
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>0.94577799199942003</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B115" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C115" t="s">
-        <v>59</v>
-      </c>
-      <c r="D115" s="2">
-        <v>0.95350000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>0.96504637500038304</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B116" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C116" t="s">
-        <v>59</v>
-      </c>
-      <c r="D116" s="2">
-        <v>0.87949999999999995</v>
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>0.93552506899959498</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B117" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C117" t="s">
-        <v>59</v>
-      </c>
-      <c r="D117" s="2">
-        <v>0.92479999999999996</v>
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>0.90883176099941898</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B118" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C118" t="s">
-        <v>59</v>
-      </c>
-      <c r="D118" s="2">
-        <v>0.8992</v>
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>0.89223380599923896</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B119" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C119" t="s">
-        <v>59</v>
-      </c>
-      <c r="D119" s="2">
-        <v>0.96870000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>0.97251445899928501</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B120" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C120" t="s">
-        <v>59</v>
-      </c>
-      <c r="D120" s="2">
-        <v>1.1904999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>1.2253302899998699</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B121" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C121" t="s">
-        <v>59</v>
-      </c>
-      <c r="D121" s="2">
-        <v>1.4164000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>1.4103249839999901</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B122" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C122" t="s">
-        <v>59</v>
-      </c>
-      <c r="D122" s="2">
-        <v>0.87949999999999995</v>
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>0.90391741200073705</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B123" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C123" t="s">
-        <v>59</v>
-      </c>
-      <c r="D123" s="2">
-        <v>0.85880000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>0.91218918200047405</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B124" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C124" t="s">
-        <v>59</v>
-      </c>
-      <c r="D124" s="2">
-        <v>0.95799999999999996</v>
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>0.97605801200006603</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B125" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C125" t="s">
-        <v>59</v>
-      </c>
-      <c r="D125" s="2">
-        <v>0.91220000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>0.92605148299935502</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B126" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C126" t="s">
-        <v>59</v>
-      </c>
-      <c r="D126" s="2">
-        <v>0.89770000000000005</v>
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>0.91944606400011197</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B127" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C127" t="s">
-        <v>59</v>
-      </c>
-      <c r="D127" s="2">
-        <v>0.95730000000000004</v>
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>0.95356864899986205</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B128" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C128" t="s">
-        <v>59</v>
-      </c>
-      <c r="D128" s="2">
-        <v>1.1148</v>
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>1.1201807620000099</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B129" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C129" t="s">
-        <v>59</v>
-      </c>
-      <c r="D129" s="2">
-        <v>0.9647</v>
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>0.98322093899969298</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B130" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C130" t="s">
-        <v>59</v>
-      </c>
-      <c r="D130" s="2">
-        <v>0.97450000000000003</v>
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>1.0006334219997299</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B131" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C131" t="s">
-        <v>59</v>
-      </c>
-      <c r="D131" s="2">
-        <v>0.89039999999999997</v>
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>0.93395671799953495</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B132" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C132" t="s">
-        <v>59</v>
-      </c>
-      <c r="D132" s="2">
-        <v>0.90949999999999998</v>
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>0.939732898000329</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B133" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C133" t="s">
-        <v>59</v>
-      </c>
-      <c r="D133" s="2">
-        <v>0.92059999999999997</v>
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>0.92899426699932497</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B134" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C134" t="s">
-        <v>59</v>
-      </c>
-      <c r="D134" s="2">
-        <v>0.77629999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>0.77510732900009305</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B135" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C135" t="s">
-        <v>59</v>
-      </c>
-      <c r="D135" s="2">
-        <v>0.93710000000000004</v>
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>0.94748361900019495</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B136" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C136" t="s">
-        <v>59</v>
-      </c>
-      <c r="D136" s="2">
-        <v>0.77200000000000002</v>
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>0.78562735500054204</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B137" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C137" t="s">
-        <v>59</v>
-      </c>
-      <c r="D137" s="2">
-        <v>1.2211000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>1.2336618670005901</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B138" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C138" t="s">
-        <v>59</v>
-      </c>
-      <c r="D138" s="2">
-        <v>1.1691</v>
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>1.10442870499991</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B139" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C139" t="s">
-        <v>59</v>
-      </c>
-      <c r="D139" s="2">
-        <v>1.0872999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>1.09389976199963</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B140" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C140" t="s">
-        <v>59</v>
-      </c>
-      <c r="D140" s="2">
-        <v>0.91379999999999995</v>
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>0.93407635400035305</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B141" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C141" t="s">
-        <v>59</v>
-      </c>
-      <c r="D141" s="2">
-        <v>1.0297000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <v>0.97715360799975304</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B142" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C142" t="s">
-        <v>59</v>
-      </c>
-      <c r="D142" s="2">
-        <v>0.98729999999999996</v>
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>1.0346392610008399</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B143" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C143" t="s">
-        <v>60</v>
-      </c>
-      <c r="D143" s="2">
-        <v>0.86809999999999998</v>
+        <v>1</v>
+      </c>
+      <c r="D143">
+        <v>0.88414908600043396</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B144" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C144" t="s">
-        <v>60</v>
-      </c>
-      <c r="D144" s="2">
-        <v>0.87939999999999996</v>
+        <v>1</v>
+      </c>
+      <c r="D144">
+        <v>0.89995842299958895</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B145" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C145" t="s">
-        <v>60</v>
-      </c>
-      <c r="D145" s="2">
-        <v>1.17E-2</v>
+        <v>1</v>
+      </c>
+      <c r="D145">
+        <v>0.93021506800050702</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B146" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C146" t="s">
-        <v>59</v>
-      </c>
-      <c r="D146" s="2">
-        <v>1.0086999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>0.99701075100074299</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B147" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C147" t="s">
-        <v>59</v>
-      </c>
-      <c r="D147" s="2">
-        <v>1.0537000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>0.99662801900012699</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B148" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C148" t="s">
-        <v>59</v>
-      </c>
-      <c r="D148" s="2">
-        <v>0.94130000000000003</v>
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <v>0.94977743500021405</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B149" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C149" t="s">
-        <v>59</v>
-      </c>
-      <c r="D149" s="2">
-        <v>0.92369999999999997</v>
+        <v>0</v>
+      </c>
+      <c r="D149">
+        <v>0.90718518699941297</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B150" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C150" t="s">
-        <v>59</v>
-      </c>
-      <c r="D150" s="2">
-        <v>0.93130000000000002</v>
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <v>0.97373118299947203</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B151" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C151" t="s">
-        <v>59</v>
-      </c>
-      <c r="D151" s="2">
-        <v>0.93330000000000002</v>
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <v>0.966591501999573</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B152" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C152" t="s">
-        <v>59</v>
-      </c>
-      <c r="D152" s="2">
-        <v>0.89870000000000005</v>
+        <v>0</v>
+      </c>
+      <c r="D152">
+        <v>0.92382085899953303</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B153" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C153" t="s">
-        <v>59</v>
-      </c>
-      <c r="D153" s="2">
-        <v>0.98209999999999997</v>
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <v>0.98867555899960202</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B154" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C154" t="s">
-        <v>59</v>
-      </c>
-      <c r="D154" s="2">
-        <v>0.78469999999999995</v>
+        <v>0</v>
+      </c>
+      <c r="D154">
+        <v>0.78657766600008405</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B155" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C155" t="s">
-        <v>59</v>
-      </c>
-      <c r="D155" s="2">
-        <v>0.95</v>
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <v>0.96118761399975405</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B156" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C156" t="s">
-        <v>59</v>
-      </c>
-      <c r="D156" s="2">
-        <v>0.98319999999999996</v>
+        <v>0</v>
+      </c>
+      <c r="D156">
+        <v>0.98759897899981297</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B157" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C157" t="s">
-        <v>59</v>
-      </c>
-      <c r="D157" s="2">
-        <v>0.8659</v>
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <v>0.90440509000018199</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B158" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C158" t="s">
-        <v>59</v>
-      </c>
-      <c r="D158" s="2">
-        <v>0.88149999999999995</v>
+        <v>0</v>
+      </c>
+      <c r="D158">
+        <v>0.90799628400054599</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B159" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C159" t="s">
-        <v>59</v>
-      </c>
-      <c r="D159" s="2">
-        <v>0.95550000000000002</v>
+        <v>0</v>
+      </c>
+      <c r="D159">
+        <v>0.98546396800065805</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B160" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C160" t="s">
-        <v>59</v>
-      </c>
-      <c r="D160" s="2">
-        <v>0.92100000000000004</v>
+        <v>0</v>
+      </c>
+      <c r="D160">
+        <v>0.923961730000883</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B161" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C161" t="s">
-        <v>59</v>
-      </c>
-      <c r="D161" s="2">
-        <v>0.93659999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="D161">
+        <v>0.920442157000252</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B162" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C162" t="s">
-        <v>59</v>
-      </c>
-      <c r="D162" s="2">
-        <v>0.97319999999999995</v>
+        <v>0</v>
+      </c>
+      <c r="D162">
+        <v>1.04169806400022</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B163" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C163" t="s">
-        <v>59</v>
-      </c>
-      <c r="D163" s="2">
-        <v>0.99060000000000004</v>
+        <v>0</v>
+      </c>
+      <c r="D163">
+        <v>0.98984446900067202</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B164" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C164" t="s">
-        <v>59</v>
-      </c>
-      <c r="D164" s="2">
-        <v>0.90480000000000005</v>
+        <v>0</v>
+      </c>
+      <c r="D164">
+        <v>0.91153223200035405</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B165" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C165" t="s">
-        <v>59</v>
-      </c>
-      <c r="D165" s="2">
-        <v>0.9577</v>
+        <v>0</v>
+      </c>
+      <c r="D165">
+        <v>0.94141734799995902</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B166" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C166" t="s">
-        <v>59</v>
-      </c>
-      <c r="D166" s="2">
-        <v>0.96589999999999998</v>
+        <v>0</v>
+      </c>
+      <c r="D166">
+        <v>0.96605993799948897</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B167" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C167" t="s">
-        <v>59</v>
-      </c>
-      <c r="D167" s="2">
-        <v>0.95989999999999998</v>
+        <v>0</v>
+      </c>
+      <c r="D167">
+        <v>0.95987748799961903</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B168" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C168" t="s">
-        <v>59</v>
-      </c>
-      <c r="D168" s="2">
-        <v>0.90980000000000005</v>
+        <v>0</v>
+      </c>
+      <c r="D168">
+        <v>0.90399133699975198</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B169" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C169" t="s">
-        <v>59</v>
-      </c>
-      <c r="D169" s="2">
-        <v>0.93079999999999996</v>
+        <v>0</v>
+      </c>
+      <c r="D169">
+        <v>0.95845972500046595</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B170" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C170" t="s">
-        <v>59</v>
-      </c>
-      <c r="D170" s="2">
-        <v>0.88900000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="D170">
+        <v>0.90072467800018696</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B171" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C171" t="s">
-        <v>59</v>
-      </c>
-      <c r="D171" s="2">
-        <v>0.92930000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="D171">
+        <v>0.913239025999246</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B172" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C172" t="s">
-        <v>59</v>
-      </c>
-      <c r="D172" s="2">
-        <v>0.89510000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="D172">
+        <v>0.93166142199970603</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B173" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C173" t="s">
-        <v>59</v>
-      </c>
-      <c r="D173" s="2">
-        <v>0.93989999999999996</v>
+        <v>0</v>
+      </c>
+      <c r="D173">
+        <v>0.95664698100063095</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B174" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C174" t="s">
-        <v>59</v>
-      </c>
-      <c r="D174" s="2">
-        <v>0.90720000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="D174">
+        <v>0.96009898599913801</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B175" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C175" t="s">
-        <v>59</v>
-      </c>
-      <c r="D175" s="2">
-        <v>0.93189999999999995</v>
+        <v>0</v>
+      </c>
+      <c r="D175">
+        <v>0.94939939300002096</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B176" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C176" t="s">
-        <v>59</v>
-      </c>
-      <c r="D176" s="2">
-        <v>0.9415</v>
+        <v>0</v>
+      </c>
+      <c r="D176">
+        <v>0.93174166200060404</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B177" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C177" t="s">
-        <v>59</v>
-      </c>
-      <c r="D177" s="2">
-        <v>0.91439999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="D177">
+        <v>0.92720735199964099</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B178" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C178" t="s">
-        <v>59</v>
-      </c>
-      <c r="D178" s="2">
-        <v>0.93310000000000004</v>
+        <v>0</v>
+      </c>
+      <c r="D178">
+        <v>0.975603523000245</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B179" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C179" t="s">
-        <v>59</v>
-      </c>
-      <c r="D179" s="2">
-        <v>0.87729999999999997</v>
+        <v>0</v>
+      </c>
+      <c r="D179">
+        <v>0.96830758200030598</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B180" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C180" t="s">
-        <v>59</v>
-      </c>
-      <c r="D180" s="2">
-        <v>0.95389999999999997</v>
+        <v>0</v>
+      </c>
+      <c r="D180">
+        <v>0.944859420000284</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B181" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C181" t="s">
-        <v>59</v>
-      </c>
-      <c r="D181" s="2">
-        <v>0.8901</v>
+        <v>0</v>
+      </c>
+      <c r="D181">
+        <v>0.91969581899957098</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B182" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C182" t="s">
-        <v>59</v>
-      </c>
-      <c r="D182" s="2">
-        <v>2.6945999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="D182">
+        <v>2.56553004399938</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B183" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C183" t="s">
-        <v>59</v>
-      </c>
-      <c r="D183" s="2">
-        <v>12.2484</v>
+        <v>0</v>
+      </c>
+      <c r="D183">
+        <v>10.0671403080004</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B184" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C184" t="s">
-        <v>60</v>
-      </c>
-      <c r="D184" s="2">
-        <v>565.97739999999999</v>
+        <v>1</v>
+      </c>
+      <c r="D184">
+        <v>1.27761509500032</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B185" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C185" t="s">
-        <v>60</v>
-      </c>
-      <c r="D185" s="2">
-        <v>1.1356999999999999</v>
+        <v>1</v>
+      </c>
+      <c r="D185">
+        <v>1.0975727100003401</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B186" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C186" t="s">
-        <v>59</v>
-      </c>
-      <c r="D186" s="2">
-        <v>6.4641999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="D186">
+        <v>5.77856442600023</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B187" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C187" t="s">
-        <v>59</v>
-      </c>
-      <c r="D187" s="2">
-        <v>1.5731999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="D187">
+        <v>1.58880361599949</v>
       </c>
     </row>
   </sheetData>
